--- a/Documentation/Role.xlsx
+++ b/Documentation/Role.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pham_\OneDrive\Documents\BTS AN 2\Projet C#\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pham_\OneDrive\Documents\BTS AN 2\Projet C#\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69678A2-C90E-454C-817A-08087E99419D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A29B703-9C93-4897-9A08-8A8B52CF98D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B7AD8EA9-1940-488D-872A-010F070B966E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Contexte</t>
   </si>
@@ -470,7 +470,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -658,7 +658,9 @@
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
